--- a/Documents/労金AML_ビートル設定（団体）20250811.xlsx
+++ b/Documents/労金AML_ビートル設定（団体）20250811.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02.開発\01.VisualStudio\net80\労働金庫連合会\01.AML業務\管理ツール\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30A4432-4CD4-443C-A294-731CDED3E2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F44791-7209-4B1F-8AE9-64942FFF9796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5775" yWindow="750" windowWidth="20850" windowHeight="14565" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="1350" windowWidth="21360" windowHeight="13845" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フロー" sheetId="3" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2962" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2965" uniqueCount="897">
   <si>
     <t>No</t>
     <phoneticPr fontId="3"/>
@@ -4270,6 +4270,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4297,7 +4298,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4840,13 +4840,13 @@
     </row>
     <row r="23" spans="3:10">
       <c r="C23" s="6"/>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="30" t="s">
         <v>123</v>
       </c>
       <c r="H23" s="14" t="s">
@@ -4855,27 +4855,27 @@
     </row>
     <row r="24" spans="3:10">
       <c r="C24" s="6"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="G24" s="29"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="G24" s="30"/>
       <c r="H24" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="25" spans="3:10">
       <c r="C25" s="6"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="G25" s="29"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="G25" s="30"/>
       <c r="H25" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="26" spans="3:10">
       <c r="C26" s="6"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="G26" s="29"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="G26" s="30"/>
       <c r="H26" s="3" t="s">
         <v>140</v>
       </c>
@@ -4888,9 +4888,9 @@
     </row>
     <row r="27" spans="3:10">
       <c r="C27" s="6"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="G27" s="29"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="3" t="s">
         <v>142</v>
       </c>
@@ -5007,13 +5007,13 @@
       </c>
     </row>
     <row r="46" spans="4:8">
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="E46" s="29" t="s">
+      <c r="E46" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="G46" s="30" t="s">
         <v>123</v>
       </c>
       <c r="H46" s="3" t="s">
@@ -5021,25 +5021,25 @@
       </c>
     </row>
     <row r="47" spans="4:8">
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="G47" s="29"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="G47" s="30"/>
       <c r="H47" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="48" spans="4:8">
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="G48" s="29"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="G48" s="30"/>
       <c r="H48" s="3" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="49" spans="4:8">
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="G49" s="29"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="G49" s="30"/>
       <c r="H49" s="3" t="s">
         <v>164</v>
       </c>
@@ -6811,11 +6811,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>891</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="25" t="s">
@@ -11159,11 +11159,9 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="B2:D7"/>
+  <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
   <cols>
@@ -11220,23 +11218,34 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="27" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>882</v>
+        <v>199</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="27" t="s">
-        <v>683</v>
+        <v>573</v>
       </c>
       <c r="C7" s="27" t="s">
+        <v>882</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="27" t="s">
+        <v>574</v>
+      </c>
+      <c r="C8" s="27" t="s">
         <v>884</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D8" s="27" t="s">
         <v>227</v>
       </c>
     </row>
@@ -11308,8 +11317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:J155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
@@ -11328,12 +11337,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="1" t="s">
@@ -11365,7 +11374,7 @@
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>186</v>
       </c>
       <c r="C4" s="17">
@@ -11394,7 +11403,7 @@
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="31"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="17">
         <v>2</v>
       </c>
@@ -11421,7 +11430,7 @@
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="31"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="17">
         <v>3</v>
       </c>
@@ -11448,7 +11457,7 @@
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="31"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="17">
         <v>4</v>
       </c>
@@ -11475,7 +11484,7 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="31"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="17">
         <v>5</v>
       </c>
@@ -11502,7 +11511,7 @@
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="31"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="17">
         <v>6</v>
       </c>
@@ -11529,7 +11538,7 @@
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="31"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="17">
         <v>7</v>
       </c>
@@ -11556,7 +11565,7 @@
       </c>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="31"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="17">
         <v>8</v>
       </c>
@@ -11583,7 +11592,7 @@
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="31"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="17">
         <v>9</v>
       </c>
@@ -11610,7 +11619,7 @@
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="31"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="17">
         <v>10</v>
       </c>
@@ -11637,7 +11646,7 @@
       </c>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="31"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="17">
         <v>11</v>
       </c>
@@ -11664,7 +11673,7 @@
       </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="31"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="17">
         <v>12</v>
       </c>
@@ -11691,7 +11700,7 @@
       </c>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="31"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="17">
         <v>13</v>
       </c>
@@ -11718,7 +11727,7 @@
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="31"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="17">
         <v>14</v>
       </c>
@@ -11745,7 +11754,7 @@
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="31"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="17">
         <v>15</v>
       </c>
@@ -11772,7 +11781,7 @@
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="31"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="17">
         <v>16</v>
       </c>
@@ -11799,7 +11808,7 @@
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="31"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="17">
         <v>17</v>
       </c>
@@ -11826,7 +11835,7 @@
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="31"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="17">
         <v>18</v>
       </c>
@@ -11853,7 +11862,7 @@
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="31"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="17">
         <v>19</v>
       </c>
@@ -11880,7 +11889,7 @@
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="31"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="17">
         <v>20</v>
       </c>
@@ -11907,7 +11916,7 @@
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="31"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="17">
         <v>21</v>
       </c>
@@ -11934,7 +11943,7 @@
       </c>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="31"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="17">
         <v>22</v>
       </c>
@@ -11961,7 +11970,7 @@
       </c>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="31"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="17">
         <v>23</v>
       </c>
@@ -11988,7 +11997,7 @@
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="31"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="17">
         <v>24</v>
       </c>
@@ -12015,7 +12024,7 @@
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="31"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="17">
         <v>25</v>
       </c>
@@ -12042,7 +12051,7 @@
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="31"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="17">
         <v>26</v>
       </c>
@@ -12069,7 +12078,7 @@
       </c>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="31"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="17">
         <v>27</v>
       </c>
@@ -12096,7 +12105,7 @@
       </c>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="31"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="17">
         <v>28</v>
       </c>
@@ -12123,7 +12132,7 @@
       </c>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="31"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="17">
         <v>29</v>
       </c>
@@ -12150,7 +12159,7 @@
       </c>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="31"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="17">
         <v>30</v>
       </c>
@@ -12177,7 +12186,7 @@
       </c>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="31"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="17">
         <v>31</v>
       </c>
@@ -12204,7 +12213,7 @@
       </c>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="31"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="17">
         <v>32</v>
       </c>
@@ -12231,7 +12240,7 @@
       </c>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="31"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="17">
         <v>33</v>
       </c>
@@ -12258,7 +12267,7 @@
       </c>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="31"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="17">
         <v>34</v>
       </c>
@@ -12285,7 +12294,7 @@
       </c>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="31"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="17">
         <v>35</v>
       </c>
@@ -12312,7 +12321,7 @@
       </c>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="31"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="17">
         <v>36</v>
       </c>
@@ -12339,7 +12348,7 @@
       </c>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="33" t="s">
         <v>234</v>
       </c>
       <c r="C40" s="21">
@@ -12368,7 +12377,7 @@
       </c>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="32"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="21">
         <v>38</v>
       </c>
@@ -12395,7 +12404,7 @@
       </c>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="32"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="21">
         <v>39</v>
       </c>
@@ -12422,7 +12431,7 @@
       </c>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="32"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="21">
         <v>40</v>
       </c>
@@ -12449,7 +12458,7 @@
       </c>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="32"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="21">
         <v>41</v>
       </c>
@@ -12476,7 +12485,7 @@
       </c>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="32"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="21">
         <v>42</v>
       </c>
@@ -12503,7 +12512,7 @@
       </c>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="32"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="21">
         <v>43</v>
       </c>
@@ -12530,7 +12539,7 @@
       </c>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="32"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="21">
         <v>44</v>
       </c>
@@ -12557,7 +12566,7 @@
       </c>
     </row>
     <row r="48" spans="2:10">
-      <c r="B48" s="32"/>
+      <c r="B48" s="33"/>
       <c r="C48" s="21">
         <v>45</v>
       </c>
@@ -12584,7 +12593,7 @@
       </c>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="32"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="21">
         <v>46</v>
       </c>
@@ -12611,7 +12620,7 @@
       </c>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="32"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="21">
         <v>47</v>
       </c>
@@ -12638,7 +12647,7 @@
       </c>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="32"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="21">
         <v>48</v>
       </c>
@@ -12665,7 +12674,7 @@
       </c>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="32"/>
+      <c r="B52" s="33"/>
       <c r="C52" s="21">
         <v>49</v>
       </c>
@@ -12692,7 +12701,7 @@
       </c>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="32"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="21">
         <v>50</v>
       </c>
@@ -12719,7 +12728,7 @@
       </c>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="32"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="21">
         <v>51</v>
       </c>
@@ -12746,7 +12755,7 @@
       </c>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="32"/>
+      <c r="B55" s="33"/>
       <c r="C55" s="21">
         <v>52</v>
       </c>
@@ -12773,7 +12782,7 @@
       </c>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="32"/>
+      <c r="B56" s="33"/>
       <c r="C56" s="21">
         <v>53</v>
       </c>
@@ -12800,7 +12809,7 @@
       </c>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="32"/>
+      <c r="B57" s="33"/>
       <c r="C57" s="21">
         <v>54</v>
       </c>
@@ -12827,7 +12836,7 @@
       </c>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="32"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="21">
         <v>55</v>
       </c>
@@ -12854,7 +12863,7 @@
       </c>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="32"/>
+      <c r="B59" s="33"/>
       <c r="C59" s="21">
         <v>56</v>
       </c>
@@ -12881,7 +12890,7 @@
       </c>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="32"/>
+      <c r="B60" s="33"/>
       <c r="C60" s="21">
         <v>57</v>
       </c>
@@ -12908,7 +12917,7 @@
       </c>
     </row>
     <row r="61" spans="2:10">
-      <c r="B61" s="32"/>
+      <c r="B61" s="33"/>
       <c r="C61" s="21">
         <v>58</v>
       </c>
@@ -12935,7 +12944,7 @@
       </c>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="32"/>
+      <c r="B62" s="33"/>
       <c r="C62" s="21">
         <v>59</v>
       </c>
@@ -12962,7 +12971,7 @@
       </c>
     </row>
     <row r="63" spans="2:10">
-      <c r="B63" s="32"/>
+      <c r="B63" s="33"/>
       <c r="C63" s="21">
         <v>60</v>
       </c>
@@ -12989,7 +12998,7 @@
       </c>
     </row>
     <row r="64" spans="2:10">
-      <c r="B64" s="32"/>
+      <c r="B64" s="33"/>
       <c r="C64" s="21">
         <v>61</v>
       </c>
@@ -13016,7 +13025,7 @@
       </c>
     </row>
     <row r="65" spans="2:10">
-      <c r="B65" s="32"/>
+      <c r="B65" s="33"/>
       <c r="C65" s="21">
         <v>62</v>
       </c>
@@ -13043,7 +13052,7 @@
       </c>
     </row>
     <row r="66" spans="2:10">
-      <c r="B66" s="32"/>
+      <c r="B66" s="33"/>
       <c r="C66" s="21">
         <v>63</v>
       </c>
@@ -13070,7 +13079,7 @@
       </c>
     </row>
     <row r="67" spans="2:10">
-      <c r="B67" s="32"/>
+      <c r="B67" s="33"/>
       <c r="C67" s="21">
         <v>64</v>
       </c>
@@ -13097,7 +13106,7 @@
       </c>
     </row>
     <row r="68" spans="2:10">
-      <c r="B68" s="32"/>
+      <c r="B68" s="33"/>
       <c r="C68" s="21">
         <v>65</v>
       </c>
@@ -13124,7 +13133,7 @@
       </c>
     </row>
     <row r="69" spans="2:10">
-      <c r="B69" s="32"/>
+      <c r="B69" s="33"/>
       <c r="C69" s="21">
         <v>66</v>
       </c>
@@ -13151,7 +13160,7 @@
       </c>
     </row>
     <row r="70" spans="2:10">
-      <c r="B70" s="32"/>
+      <c r="B70" s="33"/>
       <c r="C70" s="21">
         <v>67</v>
       </c>
@@ -13178,7 +13187,7 @@
       </c>
     </row>
     <row r="71" spans="2:10">
-      <c r="B71" s="32"/>
+      <c r="B71" s="33"/>
       <c r="C71" s="21">
         <v>68</v>
       </c>
@@ -13205,7 +13214,7 @@
       </c>
     </row>
     <row r="72" spans="2:10">
-      <c r="B72" s="32"/>
+      <c r="B72" s="33"/>
       <c r="C72" s="21">
         <v>69</v>
       </c>
@@ -13232,7 +13241,7 @@
       </c>
     </row>
     <row r="73" spans="2:10">
-      <c r="B73" s="32"/>
+      <c r="B73" s="33"/>
       <c r="C73" s="21">
         <v>70</v>
       </c>
@@ -13259,7 +13268,7 @@
       </c>
     </row>
     <row r="74" spans="2:10">
-      <c r="B74" s="32"/>
+      <c r="B74" s="33"/>
       <c r="C74" s="21">
         <v>71</v>
       </c>
@@ -13286,7 +13295,7 @@
       </c>
     </row>
     <row r="75" spans="2:10">
-      <c r="B75" s="32"/>
+      <c r="B75" s="33"/>
       <c r="C75" s="21">
         <v>72</v>
       </c>
@@ -13313,7 +13322,7 @@
       </c>
     </row>
     <row r="76" spans="2:10">
-      <c r="B76" s="32"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="21">
         <v>73</v>
       </c>
@@ -13340,7 +13349,7 @@
       </c>
     </row>
     <row r="77" spans="2:10">
-      <c r="B77" s="32"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="21">
         <v>74</v>
       </c>
@@ -13367,7 +13376,7 @@
       </c>
     </row>
     <row r="78" spans="2:10">
-      <c r="B78" s="32"/>
+      <c r="B78" s="33"/>
       <c r="C78" s="21">
         <v>75</v>
       </c>
@@ -13394,7 +13403,7 @@
       </c>
     </row>
     <row r="79" spans="2:10">
-      <c r="B79" s="32"/>
+      <c r="B79" s="33"/>
       <c r="C79" s="21">
         <v>76</v>
       </c>
@@ -13421,7 +13430,7 @@
       </c>
     </row>
     <row r="80" spans="2:10">
-      <c r="B80" s="32"/>
+      <c r="B80" s="33"/>
       <c r="C80" s="21">
         <v>77</v>
       </c>
@@ -13448,7 +13457,7 @@
       </c>
     </row>
     <row r="81" spans="2:10">
-      <c r="B81" s="32"/>
+      <c r="B81" s="33"/>
       <c r="C81" s="21">
         <v>78</v>
       </c>
@@ -13475,7 +13484,7 @@
       </c>
     </row>
     <row r="82" spans="2:10">
-      <c r="B82" s="32"/>
+      <c r="B82" s="33"/>
       <c r="C82" s="21">
         <v>79</v>
       </c>
@@ -13502,7 +13511,7 @@
       </c>
     </row>
     <row r="83" spans="2:10">
-      <c r="B83" s="32"/>
+      <c r="B83" s="33"/>
       <c r="C83" s="21">
         <v>80</v>
       </c>
@@ -13529,7 +13538,7 @@
       </c>
     </row>
     <row r="84" spans="2:10">
-      <c r="B84" s="32"/>
+      <c r="B84" s="33"/>
       <c r="C84" s="21">
         <v>81</v>
       </c>
@@ -13556,7 +13565,7 @@
       </c>
     </row>
     <row r="85" spans="2:10">
-      <c r="B85" s="32"/>
+      <c r="B85" s="33"/>
       <c r="C85" s="21">
         <v>82</v>
       </c>
@@ -13583,7 +13592,7 @@
       </c>
     </row>
     <row r="86" spans="2:10">
-      <c r="B86" s="32"/>
+      <c r="B86" s="33"/>
       <c r="C86" s="21">
         <v>83</v>
       </c>
@@ -13610,7 +13619,7 @@
       </c>
     </row>
     <row r="87" spans="2:10">
-      <c r="B87" s="32"/>
+      <c r="B87" s="33"/>
       <c r="C87" s="21">
         <v>84</v>
       </c>
@@ -13637,7 +13646,7 @@
       </c>
     </row>
     <row r="88" spans="2:10">
-      <c r="B88" s="32"/>
+      <c r="B88" s="33"/>
       <c r="C88" s="21">
         <v>85</v>
       </c>
@@ -13664,7 +13673,7 @@
       </c>
     </row>
     <row r="89" spans="2:10">
-      <c r="B89" s="32"/>
+      <c r="B89" s="33"/>
       <c r="C89" s="21">
         <v>86</v>
       </c>
@@ -13691,7 +13700,7 @@
       </c>
     </row>
     <row r="90" spans="2:10">
-      <c r="B90" s="32"/>
+      <c r="B90" s="33"/>
       <c r="C90" s="21">
         <v>87</v>
       </c>
@@ -13718,7 +13727,7 @@
       </c>
     </row>
     <row r="91" spans="2:10">
-      <c r="B91" s="32"/>
+      <c r="B91" s="33"/>
       <c r="C91" s="21">
         <v>88</v>
       </c>
@@ -13745,7 +13754,7 @@
       </c>
     </row>
     <row r="92" spans="2:10">
-      <c r="B92" s="32"/>
+      <c r="B92" s="33"/>
       <c r="C92" s="21">
         <v>89</v>
       </c>
@@ -13772,7 +13781,7 @@
       </c>
     </row>
     <row r="93" spans="2:10">
-      <c r="B93" s="32"/>
+      <c r="B93" s="33"/>
       <c r="C93" s="21">
         <v>90</v>
       </c>
@@ -13799,7 +13808,7 @@
       </c>
     </row>
     <row r="94" spans="2:10">
-      <c r="B94" s="32"/>
+      <c r="B94" s="33"/>
       <c r="C94" s="21">
         <v>91</v>
       </c>
@@ -13826,7 +13835,7 @@
       </c>
     </row>
     <row r="95" spans="2:10">
-      <c r="B95" s="32"/>
+      <c r="B95" s="33"/>
       <c r="C95" s="21">
         <v>92</v>
       </c>
@@ -13853,7 +13862,7 @@
       </c>
     </row>
     <row r="96" spans="2:10">
-      <c r="B96" s="32"/>
+      <c r="B96" s="33"/>
       <c r="C96" s="21">
         <v>93</v>
       </c>
@@ -13880,7 +13889,7 @@
       </c>
     </row>
     <row r="97" spans="2:10">
-      <c r="B97" s="32"/>
+      <c r="B97" s="33"/>
       <c r="C97" s="21">
         <v>94</v>
       </c>
@@ -13907,7 +13916,7 @@
       </c>
     </row>
     <row r="98" spans="2:10">
-      <c r="B98" s="32"/>
+      <c r="B98" s="33"/>
       <c r="C98" s="21">
         <v>95</v>
       </c>
@@ -13934,7 +13943,7 @@
       </c>
     </row>
     <row r="99" spans="2:10">
-      <c r="B99" s="32"/>
+      <c r="B99" s="33"/>
       <c r="C99" s="21">
         <v>96</v>
       </c>
@@ -13961,7 +13970,7 @@
       </c>
     </row>
     <row r="100" spans="2:10">
-      <c r="B100" s="32"/>
+      <c r="B100" s="33"/>
       <c r="C100" s="21">
         <v>97</v>
       </c>
@@ -13988,7 +13997,7 @@
       </c>
     </row>
     <row r="101" spans="2:10">
-      <c r="B101" s="32"/>
+      <c r="B101" s="33"/>
       <c r="C101" s="21">
         <v>98</v>
       </c>
@@ -14015,7 +14024,7 @@
       </c>
     </row>
     <row r="102" spans="2:10">
-      <c r="B102" s="32"/>
+      <c r="B102" s="33"/>
       <c r="C102" s="21">
         <v>99</v>
       </c>
@@ -14042,7 +14051,7 @@
       </c>
     </row>
     <row r="103" spans="2:10">
-      <c r="B103" s="32"/>
+      <c r="B103" s="33"/>
       <c r="C103" s="21">
         <v>100</v>
       </c>
@@ -14069,7 +14078,7 @@
       </c>
     </row>
     <row r="104" spans="2:10">
-      <c r="B104" s="32"/>
+      <c r="B104" s="33"/>
       <c r="C104" s="21">
         <v>101</v>
       </c>
@@ -14096,7 +14105,7 @@
       </c>
     </row>
     <row r="105" spans="2:10">
-      <c r="B105" s="32"/>
+      <c r="B105" s="33"/>
       <c r="C105" s="21">
         <v>102</v>
       </c>
@@ -14123,7 +14132,7 @@
       </c>
     </row>
     <row r="106" spans="2:10">
-      <c r="B106" s="32"/>
+      <c r="B106" s="33"/>
       <c r="C106" s="21">
         <v>103</v>
       </c>
@@ -14150,7 +14159,7 @@
       </c>
     </row>
     <row r="107" spans="2:10">
-      <c r="B107" s="32"/>
+      <c r="B107" s="33"/>
       <c r="C107" s="21">
         <v>104</v>
       </c>
@@ -14177,7 +14186,7 @@
       </c>
     </row>
     <row r="108" spans="2:10">
-      <c r="B108" s="32"/>
+      <c r="B108" s="33"/>
       <c r="C108" s="21">
         <v>105</v>
       </c>
@@ -14204,7 +14213,7 @@
       </c>
     </row>
     <row r="109" spans="2:10">
-      <c r="B109" s="32"/>
+      <c r="B109" s="33"/>
       <c r="C109" s="21">
         <v>106</v>
       </c>
@@ -14231,7 +14240,7 @@
       </c>
     </row>
     <row r="110" spans="2:10">
-      <c r="B110" s="32"/>
+      <c r="B110" s="33"/>
       <c r="C110" s="21">
         <v>107</v>
       </c>
@@ -14258,7 +14267,7 @@
       </c>
     </row>
     <row r="111" spans="2:10">
-      <c r="B111" s="32"/>
+      <c r="B111" s="33"/>
       <c r="C111" s="21">
         <v>108</v>
       </c>
@@ -14285,7 +14294,7 @@
       </c>
     </row>
     <row r="112" spans="2:10">
-      <c r="B112" s="32"/>
+      <c r="B112" s="33"/>
       <c r="C112" s="21">
         <v>109</v>
       </c>
@@ -14312,7 +14321,7 @@
       </c>
     </row>
     <row r="113" spans="2:10">
-      <c r="B113" s="32"/>
+      <c r="B113" s="33"/>
       <c r="C113" s="21">
         <v>110</v>
       </c>
@@ -14339,7 +14348,7 @@
       </c>
     </row>
     <row r="114" spans="2:10">
-      <c r="B114" s="32"/>
+      <c r="B114" s="33"/>
       <c r="C114" s="21">
         <v>111</v>
       </c>
@@ -14366,7 +14375,7 @@
       </c>
     </row>
     <row r="115" spans="2:10">
-      <c r="B115" s="32"/>
+      <c r="B115" s="33"/>
       <c r="C115" s="21">
         <v>112</v>
       </c>
@@ -14393,7 +14402,7 @@
       </c>
     </row>
     <row r="116" spans="2:10">
-      <c r="B116" s="32"/>
+      <c r="B116" s="33"/>
       <c r="C116" s="21">
         <v>113</v>
       </c>
@@ -14420,7 +14429,7 @@
       </c>
     </row>
     <row r="117" spans="2:10">
-      <c r="B117" s="32"/>
+      <c r="B117" s="33"/>
       <c r="C117" s="21">
         <v>114</v>
       </c>
@@ -14447,7 +14456,7 @@
       </c>
     </row>
     <row r="118" spans="2:10">
-      <c r="B118" s="32"/>
+      <c r="B118" s="33"/>
       <c r="C118" s="21">
         <v>115</v>
       </c>
@@ -14474,7 +14483,7 @@
       </c>
     </row>
     <row r="119" spans="2:10">
-      <c r="B119" s="32"/>
+      <c r="B119" s="33"/>
       <c r="C119" s="21">
         <v>116</v>
       </c>
@@ -14501,7 +14510,7 @@
       </c>
     </row>
     <row r="120" spans="2:10">
-      <c r="B120" s="32"/>
+      <c r="B120" s="33"/>
       <c r="C120" s="21">
         <v>117</v>
       </c>
@@ -14528,7 +14537,7 @@
       </c>
     </row>
     <row r="121" spans="2:10">
-      <c r="B121" s="32"/>
+      <c r="B121" s="33"/>
       <c r="C121" s="21">
         <v>118</v>
       </c>
@@ -14555,7 +14564,7 @@
       </c>
     </row>
     <row r="122" spans="2:10">
-      <c r="B122" s="32"/>
+      <c r="B122" s="33"/>
       <c r="C122" s="21">
         <v>119</v>
       </c>
@@ -14582,7 +14591,7 @@
       </c>
     </row>
     <row r="123" spans="2:10">
-      <c r="B123" s="32"/>
+      <c r="B123" s="33"/>
       <c r="C123" s="21">
         <v>120</v>
       </c>
@@ -14609,7 +14618,7 @@
       </c>
     </row>
     <row r="124" spans="2:10">
-      <c r="B124" s="32"/>
+      <c r="B124" s="33"/>
       <c r="C124" s="21">
         <v>121</v>
       </c>
@@ -14636,7 +14645,7 @@
       </c>
     </row>
     <row r="125" spans="2:10">
-      <c r="B125" s="32"/>
+      <c r="B125" s="33"/>
       <c r="C125" s="21">
         <v>122</v>
       </c>
@@ -14663,7 +14672,7 @@
       </c>
     </row>
     <row r="126" spans="2:10">
-      <c r="B126" s="32"/>
+      <c r="B126" s="33"/>
       <c r="C126" s="21">
         <v>123</v>
       </c>
@@ -14690,7 +14699,7 @@
       </c>
     </row>
     <row r="127" spans="2:10">
-      <c r="B127" s="32"/>
+      <c r="B127" s="33"/>
       <c r="C127" s="21">
         <v>124</v>
       </c>
@@ -14717,7 +14726,7 @@
       </c>
     </row>
     <row r="128" spans="2:10">
-      <c r="B128" s="32"/>
+      <c r="B128" s="33"/>
       <c r="C128" s="21">
         <v>125</v>
       </c>
@@ -14744,7 +14753,7 @@
       </c>
     </row>
     <row r="129" spans="2:10">
-      <c r="B129" s="32"/>
+      <c r="B129" s="33"/>
       <c r="C129" s="21">
         <v>126</v>
       </c>
@@ -14771,7 +14780,7 @@
       </c>
     </row>
     <row r="130" spans="2:10">
-      <c r="B130" s="32"/>
+      <c r="B130" s="33"/>
       <c r="C130" s="21">
         <v>127</v>
       </c>
@@ -14798,7 +14807,7 @@
       </c>
     </row>
     <row r="131" spans="2:10">
-      <c r="B131" s="32"/>
+      <c r="B131" s="33"/>
       <c r="C131" s="21">
         <v>128</v>
       </c>
@@ -14825,7 +14834,7 @@
       </c>
     </row>
     <row r="132" spans="2:10">
-      <c r="B132" s="32"/>
+      <c r="B132" s="33"/>
       <c r="C132" s="21">
         <v>129</v>
       </c>
@@ -14852,7 +14861,7 @@
       </c>
     </row>
     <row r="133" spans="2:10">
-      <c r="B133" s="32"/>
+      <c r="B133" s="33"/>
       <c r="C133" s="21">
         <v>130</v>
       </c>
@@ -14879,7 +14888,7 @@
       </c>
     </row>
     <row r="134" spans="2:10">
-      <c r="B134" s="32"/>
+      <c r="B134" s="33"/>
       <c r="C134" s="21">
         <v>131</v>
       </c>
@@ -14906,7 +14915,7 @@
       </c>
     </row>
     <row r="135" spans="2:10">
-      <c r="B135" s="32"/>
+      <c r="B135" s="33"/>
       <c r="C135" s="21">
         <v>132</v>
       </c>
@@ -14933,7 +14942,7 @@
       </c>
     </row>
     <row r="136" spans="2:10">
-      <c r="B136" s="32"/>
+      <c r="B136" s="33"/>
       <c r="C136" s="21">
         <v>133</v>
       </c>
@@ -14960,7 +14969,7 @@
       </c>
     </row>
     <row r="137" spans="2:10">
-      <c r="B137" s="32"/>
+      <c r="B137" s="33"/>
       <c r="C137" s="21">
         <v>134</v>
       </c>
@@ -14987,7 +14996,7 @@
       </c>
     </row>
     <row r="138" spans="2:10">
-      <c r="B138" s="32"/>
+      <c r="B138" s="33"/>
       <c r="C138" s="21">
         <v>135</v>
       </c>
@@ -15014,7 +15023,7 @@
       </c>
     </row>
     <row r="139" spans="2:10">
-      <c r="B139" s="32"/>
+      <c r="B139" s="33"/>
       <c r="C139" s="21">
         <v>136</v>
       </c>
@@ -15041,7 +15050,7 @@
       </c>
     </row>
     <row r="140" spans="2:10">
-      <c r="B140" s="32"/>
+      <c r="B140" s="33"/>
       <c r="C140" s="21">
         <v>137</v>
       </c>
@@ -15068,7 +15077,7 @@
       </c>
     </row>
     <row r="141" spans="2:10">
-      <c r="B141" s="32"/>
+      <c r="B141" s="33"/>
       <c r="C141" s="21">
         <v>138</v>
       </c>
@@ -15095,7 +15104,7 @@
       </c>
     </row>
     <row r="142" spans="2:10">
-      <c r="B142" s="32"/>
+      <c r="B142" s="33"/>
       <c r="C142" s="21">
         <v>139</v>
       </c>
@@ -15122,7 +15131,7 @@
       </c>
     </row>
     <row r="143" spans="2:10">
-      <c r="B143" s="32"/>
+      <c r="B143" s="33"/>
       <c r="C143" s="21">
         <v>140</v>
       </c>
@@ -15149,7 +15158,7 @@
       </c>
     </row>
     <row r="144" spans="2:10">
-      <c r="B144" s="32"/>
+      <c r="B144" s="33"/>
       <c r="C144" s="21">
         <v>141</v>
       </c>
@@ -15176,7 +15185,7 @@
       </c>
     </row>
     <row r="145" spans="2:10">
-      <c r="B145" s="32"/>
+      <c r="B145" s="33"/>
       <c r="C145" s="21">
         <v>142</v>
       </c>
@@ -15203,7 +15212,7 @@
       </c>
     </row>
     <row r="146" spans="2:10">
-      <c r="B146" s="32"/>
+      <c r="B146" s="33"/>
       <c r="C146" s="21">
         <v>143</v>
       </c>
@@ -15230,7 +15239,7 @@
       </c>
     </row>
     <row r="147" spans="2:10">
-      <c r="B147" s="32"/>
+      <c r="B147" s="33"/>
       <c r="C147" s="21">
         <v>144</v>
       </c>
@@ -15257,7 +15266,7 @@
       </c>
     </row>
     <row r="148" spans="2:10">
-      <c r="B148" s="32"/>
+      <c r="B148" s="33"/>
       <c r="C148" s="21">
         <v>145</v>
       </c>
@@ -15284,7 +15293,7 @@
       </c>
     </row>
     <row r="149" spans="2:10">
-      <c r="B149" s="33" t="s">
+      <c r="B149" s="34" t="s">
         <v>222</v>
       </c>
       <c r="C149" s="19">
@@ -15313,7 +15322,7 @@
       </c>
     </row>
     <row r="150" spans="2:10">
-      <c r="B150" s="34"/>
+      <c r="B150" s="35"/>
       <c r="C150" s="19">
         <v>147</v>
       </c>
@@ -15340,7 +15349,7 @@
       </c>
     </row>
     <row r="151" spans="2:10">
-      <c r="B151" s="34"/>
+      <c r="B151" s="35"/>
       <c r="C151" s="19">
         <v>148</v>
       </c>
@@ -15367,7 +15376,7 @@
       </c>
     </row>
     <row r="152" spans="2:10">
-      <c r="B152" s="34"/>
+      <c r="B152" s="35"/>
       <c r="C152" s="19">
         <v>149</v>
       </c>
@@ -15394,7 +15403,7 @@
       </c>
     </row>
     <row r="153" spans="2:10">
-      <c r="B153" s="34"/>
+      <c r="B153" s="35"/>
       <c r="C153" s="19">
         <v>150</v>
       </c>
@@ -15421,7 +15430,7 @@
       </c>
     </row>
     <row r="154" spans="2:10">
-      <c r="B154" s="34"/>
+      <c r="B154" s="35"/>
       <c r="C154" s="19">
         <v>151</v>
       </c>
@@ -15448,7 +15457,7 @@
       </c>
     </row>
     <row r="155" spans="2:10">
-      <c r="B155" s="35"/>
+      <c r="B155" s="36"/>
       <c r="C155" s="19">
         <v>152</v>
       </c>
@@ -15842,257 +15851,257 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="37"/>
-    <col min="2" max="2" width="3.25" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.25" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="2.625" style="37"/>
+    <col min="1" max="1" width="2.625" style="28"/>
+    <col min="2" max="2" width="3.25" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.25" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="2.625" style="28"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="28" t="s">
         <v>733</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="28" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="28" t="s">
         <v>588</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="28" t="s">
         <v>736</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="28" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="28" t="s">
         <v>593</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="28" t="s">
         <v>572</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="28" t="s">
         <v>734</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="28" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="28" t="s">
         <v>594</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="28" t="s">
         <v>737</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="28" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="28" t="s">
         <v>595</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="28" t="s">
         <v>739</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="28" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="28" t="s">
         <v>598</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="28" t="s">
         <v>679</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="28" t="s">
         <v>740</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="28" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="28" t="s">
         <v>599</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="28" t="s">
         <v>680</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="28" t="s">
         <v>820</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="28" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="28" t="s">
         <v>600</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="28" t="s">
         <v>684</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="28" t="s">
         <v>741</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="28" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="28" t="s">
         <v>601</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="28" t="s">
         <v>742</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="28" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="28" t="s">
         <v>603</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="28" t="s">
         <v>682</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="28" t="s">
         <v>735</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="28" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="28" t="s">
         <v>896</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="28" t="s">
         <v>888</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>856</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="28" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="28" t="s">
         <v>608</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="28" t="s">
         <v>744</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="28" t="s">
         <v>743</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="28" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="37">
+      <c r="B14" s="28">
         <v>41</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="28" t="s">
         <v>893</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="28" t="s">
         <v>892</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="28" t="s">
         <v>895</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="28" t="s">
         <v>618</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="28" t="s">
         <v>829</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="28" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="28" t="s">
         <v>619</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="28" t="s">
         <v>823</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="28" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="28" t="s">
         <v>620</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="28" t="s">
         <v>687</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="28" t="s">
         <v>747</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="28" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="28" t="s">
         <v>628</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="28" t="s">
         <v>688</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="28" t="s">
         <v>828</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="28" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="28" t="s">
         <v>629</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="28" t="s">
         <v>745</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="28" t="s">
         <v>746</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="28" t="s">
         <v>894</v>
       </c>
     </row>
